--- a/Code/Results/Cases/Case_7_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_10/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005851815026034</v>
+        <v>1.000640116882904</v>
       </c>
       <c r="D2">
-        <v>1.021881234571469</v>
+        <v>1.018264578143038</v>
       </c>
       <c r="E2">
-        <v>1.019274587576544</v>
+        <v>1.015135973835675</v>
       </c>
       <c r="F2">
-        <v>1.025935473358757</v>
+        <v>1.021881410097475</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044373896109053</v>
+        <v>1.04307891007602</v>
       </c>
       <c r="J2">
-        <v>1.027858897030033</v>
+        <v>1.022801699006364</v>
       </c>
       <c r="K2">
-        <v>1.033043918787752</v>
+        <v>1.029475190214965</v>
       </c>
       <c r="L2">
-        <v>1.030471772066171</v>
+        <v>1.02638839222582</v>
       </c>
       <c r="M2">
-        <v>1.037044934176109</v>
+        <v>1.033044091998061</v>
       </c>
       <c r="N2">
-        <v>1.029318574560886</v>
+        <v>1.024254194735947</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012575737361973</v>
+        <v>1.005264394418219</v>
       </c>
       <c r="D3">
-        <v>1.026902769868341</v>
+        <v>1.021595868743346</v>
       </c>
       <c r="E3">
-        <v>1.025026433952968</v>
+        <v>1.019026424677874</v>
       </c>
       <c r="F3">
-        <v>1.032085082869063</v>
+        <v>1.026191762995117</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046206146409463</v>
+        <v>1.044130654465552</v>
       </c>
       <c r="J3">
-        <v>1.032729348587159</v>
+        <v>1.025612568322493</v>
       </c>
       <c r="K3">
-        <v>1.037202618346601</v>
+        <v>1.031959686444639</v>
       </c>
       <c r="L3">
-        <v>1.035348805781878</v>
+        <v>1.029421511929227</v>
       </c>
       <c r="M3">
-        <v>1.042323250458853</v>
+        <v>1.036500134304853</v>
       </c>
       <c r="N3">
-        <v>1.034195942717865</v>
+        <v>1.027069055808917</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016809221929159</v>
+        <v>1.008196008613041</v>
       </c>
       <c r="D4">
-        <v>1.030066238138547</v>
+        <v>1.0237095633345</v>
       </c>
       <c r="E4">
-        <v>1.028654149088799</v>
+        <v>1.021498837206511</v>
       </c>
       <c r="F4">
-        <v>1.035964144702006</v>
+        <v>1.028930661410661</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047347831867333</v>
+        <v>1.044786920863856</v>
       </c>
       <c r="J4">
-        <v>1.035792505207955</v>
+        <v>1.027392358135645</v>
       </c>
       <c r="K4">
-        <v>1.039814842784872</v>
+        <v>1.033530014537489</v>
       </c>
       <c r="L4">
-        <v>1.038418619420504</v>
+        <v>1.03134453382331</v>
       </c>
       <c r="M4">
-        <v>1.045647057711317</v>
+        <v>1.038692020733929</v>
       </c>
       <c r="N4">
-        <v>1.037263449372411</v>
+        <v>1.028851373127748</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0185623051352</v>
+        <v>1.00941447354393</v>
       </c>
       <c r="D5">
-        <v>1.031376566808839</v>
+        <v>1.024588443035687</v>
       </c>
       <c r="E5">
-        <v>1.030157808018645</v>
+        <v>1.02252784340289</v>
       </c>
       <c r="F5">
-        <v>1.03757210483707</v>
+        <v>1.03007049784859</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04781768161668</v>
+        <v>1.045057122398768</v>
       </c>
       <c r="J5">
-        <v>1.03706009022165</v>
+        <v>1.028131527777167</v>
       </c>
       <c r="K5">
-        <v>1.040895008937564</v>
+        <v>1.03418150056749</v>
       </c>
       <c r="L5">
-        <v>1.039689557874157</v>
+        <v>1.032143792267313</v>
       </c>
       <c r="M5">
-        <v>1.04702348987709</v>
+        <v>1.039603202535148</v>
       </c>
       <c r="N5">
-        <v>1.03853283450222</v>
+        <v>1.029591592474946</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018855130655971</v>
+        <v>1.0096182537514</v>
       </c>
       <c r="D6">
-        <v>1.031595454081214</v>
+        <v>1.024735449619188</v>
       </c>
       <c r="E6">
-        <v>1.030409052631874</v>
+        <v>1.022700018864728</v>
       </c>
       <c r="F6">
-        <v>1.037840784239762</v>
+        <v>1.030261213181929</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047895989288096</v>
+        <v>1.04510215998037</v>
       </c>
       <c r="J6">
-        <v>1.037271768099155</v>
+        <v>1.028255114848409</v>
       </c>
       <c r="K6">
-        <v>1.041075340469946</v>
+        <v>1.034290386026983</v>
       </c>
       <c r="L6">
-        <v>1.039901830817547</v>
+        <v>1.032277461484623</v>
       </c>
       <c r="M6">
-        <v>1.04725340227358</v>
+        <v>1.039755600388843</v>
       </c>
       <c r="N6">
-        <v>1.03874481298659</v>
+        <v>1.029715355054004</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016832749723802</v>
+        <v>1.00821234408192</v>
       </c>
       <c r="D7">
-        <v>1.030083822599583</v>
+        <v>1.023721344754705</v>
       </c>
       <c r="E7">
-        <v>1.028674323873319</v>
+        <v>1.021512627209727</v>
       </c>
       <c r="F7">
-        <v>1.035985718427026</v>
+        <v>1.028945936986727</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047354149264536</v>
+        <v>1.04479055352351</v>
       </c>
       <c r="J7">
-        <v>1.035809520729001</v>
+        <v>1.027402270158479</v>
       </c>
       <c r="K7">
-        <v>1.039829345735718</v>
+        <v>1.033538753507179</v>
       </c>
       <c r="L7">
-        <v>1.038435677594435</v>
+        <v>1.031355249234242</v>
       </c>
       <c r="M7">
-        <v>1.0456655304577</v>
+        <v>1.038704235968754</v>
       </c>
       <c r="N7">
-        <v>1.037280489057448</v>
+        <v>1.028861299226792</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008149380888449</v>
+        <v>1.00221578450744</v>
       </c>
       <c r="D8">
-        <v>1.023596644211619</v>
+        <v>1.019399263140098</v>
       </c>
       <c r="E8">
-        <v>1.021238625173408</v>
+        <v>1.016460309429587</v>
       </c>
       <c r="F8">
-        <v>1.028035235566674</v>
+        <v>1.023348764402509</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045002451700699</v>
+        <v>1.043439454389763</v>
       </c>
       <c r="J8">
-        <v>1.029523799345538</v>
+        <v>1.023759906236371</v>
       </c>
       <c r="K8">
-        <v>1.034466195708814</v>
+        <v>1.03032271747299</v>
       </c>
       <c r="L8">
-        <v>1.032138390194055</v>
+        <v>1.027421837579085</v>
       </c>
       <c r="M8">
-        <v>1.038848384275273</v>
+        <v>1.034221483823269</v>
       </c>
       <c r="N8">
-        <v>1.030985841228639</v>
+        <v>1.025213762730129</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9918796864301355</v>
+        <v>0.9911600467229906</v>
       </c>
       <c r="D9">
-        <v>1.011461801928396</v>
+        <v>1.011447928823165</v>
       </c>
       <c r="E9">
-        <v>1.007361267483574</v>
+        <v>1.007195519444106</v>
       </c>
       <c r="F9">
-        <v>1.013200668681342</v>
+        <v>1.013081573915169</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040502783466644</v>
+        <v>1.040866928802867</v>
       </c>
       <c r="J9">
-        <v>1.017722489008606</v>
+        <v>1.017028875423017</v>
       </c>
       <c r="K9">
-        <v>1.024371616770222</v>
+        <v>1.024357962268206</v>
       </c>
       <c r="L9">
-        <v>1.020336031685891</v>
+        <v>1.020172923220416</v>
       </c>
       <c r="M9">
-        <v>1.026083144260643</v>
+        <v>1.025965918127326</v>
       </c>
       <c r="N9">
-        <v>1.019167771677399</v>
+        <v>1.01847317308096</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9802737627583994</v>
+        <v>0.9834236503050493</v>
       </c>
       <c r="D10">
-        <v>1.002826988184678</v>
+        <v>1.005899969451157</v>
       </c>
       <c r="E10">
-        <v>0.9975054343052397</v>
+        <v>1.000749564838744</v>
       </c>
       <c r="F10">
-        <v>1.002666994286992</v>
+        <v>1.005935454143943</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037233785768099</v>
+        <v>1.039014449681225</v>
       </c>
       <c r="J10">
-        <v>1.009292495059738</v>
+        <v>1.012310737513995</v>
       </c>
       <c r="K10">
-        <v>1.017145387395273</v>
+        <v>1.02016350900589</v>
       </c>
       <c r="L10">
-        <v>1.011919875451805</v>
+        <v>1.015105298836509</v>
       </c>
       <c r="M10">
-        <v>1.016988261713718</v>
+        <v>1.020198362757229</v>
       </c>
       <c r="N10">
-        <v>1.010725806170189</v>
+        <v>1.013748334874929</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9750402942136628</v>
+        <v>0.9799779079820119</v>
       </c>
       <c r="D11">
-        <v>0.9989403960490058</v>
+        <v>1.003433810648908</v>
       </c>
       <c r="E11">
-        <v>0.993073083095796</v>
+        <v>0.9978881935164374</v>
       </c>
       <c r="F11">
-        <v>0.9979301713521781</v>
+        <v>1.002762500263728</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035746716393443</v>
+        <v>1.038177623402565</v>
       </c>
       <c r="J11">
-        <v>1.005489596040118</v>
+        <v>1.010208020556038</v>
       </c>
       <c r="K11">
-        <v>1.013882322651447</v>
+        <v>1.018291259568514</v>
       </c>
       <c r="L11">
-        <v>1.008126823981748</v>
+        <v>1.012850045605495</v>
       </c>
       <c r="M11">
-        <v>1.012891227457775</v>
+        <v>1.017632507240016</v>
       </c>
       <c r="N11">
-        <v>1.006917506597763</v>
+        <v>1.011642631817707</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.973062396694203</v>
+        <v>0.9786827769009284</v>
       </c>
       <c r="D12">
-        <v>0.9974727838693633</v>
+        <v>1.00250769539047</v>
       </c>
       <c r="E12">
-        <v>0.991399901921145</v>
+        <v>0.9968142228291897</v>
       </c>
       <c r="F12">
-        <v>0.9961420997657424</v>
+        <v>1.001571453898581</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035182855356427</v>
+        <v>1.037861385324051</v>
       </c>
       <c r="J12">
-        <v>1.004052236467166</v>
+        <v>1.009417545921111</v>
       </c>
       <c r="K12">
-        <v>1.01264856204421</v>
+        <v>1.017587009098633</v>
       </c>
       <c r="L12">
-        <v>1.006693742039169</v>
+        <v>1.012002712875791</v>
       </c>
       <c r="M12">
-        <v>1.011343586176153</v>
+        <v>1.016668609132557</v>
       </c>
       <c r="N12">
-        <v>1.005478105809351</v>
+        <v>1.010851034618129</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9734882457520405</v>
+        <v>0.9789612900703805</v>
       </c>
       <c r="D13">
-        <v>0.9977887065394436</v>
+        <v>1.002706814207939</v>
       </c>
       <c r="E13">
-        <v>0.9917600537990562</v>
+        <v>0.9970451065733792</v>
       </c>
       <c r="F13">
-        <v>0.9965269798839972</v>
+        <v>1.001827512710371</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035304338615093</v>
+        <v>1.037929467213367</v>
       </c>
       <c r="J13">
-        <v>1.00436170911404</v>
+        <v>1.00958753993579</v>
       </c>
       <c r="K13">
-        <v>1.012914217649133</v>
+        <v>1.017738478728754</v>
       </c>
       <c r="L13">
-        <v>1.00700226836049</v>
+        <v>1.012184912465954</v>
       </c>
       <c r="M13">
-        <v>1.011676762634522</v>
+        <v>1.016875867473722</v>
       </c>
       <c r="N13">
-        <v>1.00578801794288</v>
+        <v>1.011021270043808</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9748775099843062</v>
+        <v>0.9798711677296872</v>
       </c>
       <c r="D14">
-        <v>0.9988195824944347</v>
+        <v>1.0033574660753</v>
       </c>
       <c r="E14">
-        <v>0.9929353370667663</v>
+        <v>0.9977996492995231</v>
       </c>
       <c r="F14">
-        <v>0.997782966007959</v>
+        <v>1.002664306336132</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035700346609192</v>
+        <v>1.038151594450911</v>
       </c>
       <c r="J14">
-        <v>1.005371300735793</v>
+        <v>1.010142874846256</v>
       </c>
       <c r="K14">
-        <v>1.013780792282011</v>
+        <v>1.018233228193435</v>
       </c>
       <c r="L14">
-        <v>1.008008869369573</v>
+        <v>1.0127802041621</v>
       </c>
       <c r="M14">
-        <v>1.012763837732445</v>
+        <v>1.017553055199333</v>
       </c>
       <c r="N14">
-        <v>1.006799043300537</v>
+        <v>1.011577393593544</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.975728896128409</v>
+        <v>0.9804297295147486</v>
       </c>
       <c r="D15">
-        <v>0.9994515079464232</v>
+        <v>1.003757004325976</v>
       </c>
       <c r="E15">
-        <v>0.9936558498069769</v>
+        <v>0.9982630551650116</v>
       </c>
       <c r="F15">
-        <v>0.9985529596964864</v>
+        <v>1.003178209729637</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035942793011037</v>
+        <v>1.038287732390867</v>
       </c>
       <c r="J15">
-        <v>1.005989998863565</v>
+        <v>1.010483770950769</v>
       </c>
       <c r="K15">
-        <v>1.014311790265125</v>
+        <v>1.018536879435041</v>
       </c>
       <c r="L15">
-        <v>1.008625808319669</v>
+        <v>1.013145691990615</v>
       </c>
       <c r="M15">
-        <v>1.013430137078784</v>
+        <v>1.017968841722892</v>
       </c>
       <c r="N15">
-        <v>1.007418620050616</v>
+        <v>1.011918773809628</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.980616484453271</v>
+        <v>0.9836502442085264</v>
       </c>
       <c r="D16">
-        <v>1.0030816704629</v>
+        <v>1.006062254650297</v>
       </c>
       <c r="E16">
-        <v>0.9977959537533738</v>
+        <v>1.000937936461203</v>
       </c>
       <c r="F16">
-        <v>1.002977477213655</v>
+        <v>1.006144320904624</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037330908066704</v>
+        <v>1.039069240137923</v>
       </c>
       <c r="J16">
-        <v>1.00954151074229</v>
+        <v>1.012448991070501</v>
       </c>
       <c r="K16">
-        <v>1.017358991563799</v>
+        <v>1.020286550441253</v>
       </c>
       <c r="L16">
-        <v>1.012168322157291</v>
+        <v>1.015253648783937</v>
       </c>
       <c r="M16">
-        <v>1.017256659340251</v>
+        <v>1.020367162482347</v>
       </c>
       <c r="N16">
-        <v>1.010975175483574</v>
+        <v>1.013886784767343</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9836248336338973</v>
+        <v>0.9856441627901725</v>
       </c>
       <c r="D17">
-        <v>1.005318050436967</v>
+        <v>1.007490852203146</v>
       </c>
       <c r="E17">
-        <v>1.000347448643422</v>
+        <v>1.002596619915059</v>
       </c>
       <c r="F17">
-        <v>1.005704342253287</v>
+        <v>1.007983381791731</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038181974145218</v>
+        <v>1.0395500404876</v>
       </c>
       <c r="J17">
-        <v>1.011727162153271</v>
+        <v>1.013665416436095</v>
       </c>
       <c r="K17">
-        <v>1.019233473083262</v>
+        <v>1.021368802184841</v>
       </c>
       <c r="L17">
-        <v>1.014349388567857</v>
+        <v>1.016559273642978</v>
       </c>
       <c r="M17">
-        <v>1.019613087509557</v>
+        <v>1.021852866523105</v>
       </c>
       <c r="N17">
-        <v>1.013163930770256</v>
+        <v>1.015104937596483</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9853596793409984</v>
+        <v>0.9867979946345492</v>
       </c>
       <c r="D18">
-        <v>1.006608375756098</v>
+        <v>1.008318001962816</v>
       </c>
       <c r="E18">
-        <v>1.001819951286746</v>
+        <v>1.003557366812418</v>
       </c>
       <c r="F18">
-        <v>1.007278088586222</v>
+        <v>1.009048534179743</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038671535436261</v>
+        <v>1.03982714969733</v>
       </c>
       <c r="J18">
-        <v>1.012987422703485</v>
+        <v>1.014369206063241</v>
       </c>
       <c r="K18">
-        <v>1.020314006723511</v>
+        <v>1.021994684080227</v>
       </c>
       <c r="L18">
-        <v>1.015607343774287</v>
+        <v>1.017314976702448</v>
       </c>
       <c r="M18">
-        <v>1.020972364294646</v>
+        <v>1.022712884889486</v>
       </c>
       <c r="N18">
-        <v>1.014425981035005</v>
+        <v>1.015809726685625</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9859479230315992</v>
+        <v>0.9871898874533972</v>
       </c>
       <c r="D19">
-        <v>1.00704599952467</v>
+        <v>1.008599013465275</v>
       </c>
       <c r="E19">
-        <v>1.0023194255934</v>
+        <v>1.003883831215351</v>
       </c>
       <c r="F19">
-        <v>1.00781191108679</v>
+        <v>1.009410463763607</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03883732238263</v>
+        <v>1.039921076959638</v>
       </c>
       <c r="J19">
-        <v>1.013414716846283</v>
+        <v>1.014608221494928</v>
       </c>
       <c r="K19">
-        <v>1.020680311237293</v>
+        <v>1.022207193161016</v>
       </c>
       <c r="L19">
-        <v>1.016033913301183</v>
+        <v>1.017571674280348</v>
       </c>
       <c r="M19">
-        <v>1.021433322095802</v>
+        <v>1.023005030698603</v>
       </c>
       <c r="N19">
-        <v>1.014853881984497</v>
+        <v>1.016049081546641</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833041403700706</v>
+        <v>0.9854311902819788</v>
       </c>
       <c r="D20">
-        <v>1.005079580442156</v>
+        <v>1.007338214321129</v>
       </c>
       <c r="E20">
-        <v>1.00007533974156</v>
+        <v>1.002419359576859</v>
       </c>
       <c r="F20">
-        <v>1.005413527088742</v>
+        <v>1.007786852530292</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038091376571611</v>
+        <v>1.039498801302579</v>
       </c>
       <c r="J20">
-        <v>1.011494184622415</v>
+        <v>1.013535501467729</v>
       </c>
       <c r="K20">
-        <v>1.019033695759587</v>
+        <v>1.021253245787885</v>
       </c>
       <c r="L20">
-        <v>1.014116864520218</v>
+        <v>1.01641980044866</v>
       </c>
       <c r="M20">
-        <v>1.019361849411708</v>
+        <v>1.021694147640852</v>
       </c>
       <c r="N20">
-        <v>1.012930622384584</v>
+        <v>1.01497483813396</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9744693668721572</v>
+        <v>0.9796036588113116</v>
       </c>
       <c r="D21">
-        <v>0.9985166918568431</v>
+        <v>1.003166147435526</v>
       </c>
       <c r="E21">
-        <v>0.9925900032287966</v>
+        <v>0.9975777673630235</v>
       </c>
       <c r="F21">
-        <v>0.9974139180536152</v>
+        <v>1.002418241197852</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035584055907399</v>
+        <v>1.038086334287236</v>
       </c>
       <c r="J21">
-        <v>1.005074701586251</v>
+        <v>1.009979606763482</v>
       </c>
       <c r="K21">
-        <v>1.013526220562406</v>
+        <v>1.018087783433884</v>
       </c>
       <c r="L21">
-        <v>1.007713133417746</v>
+        <v>1.012605175454429</v>
       </c>
       <c r="M21">
-        <v>1.012444450743993</v>
+        <v>1.017353943635251</v>
       </c>
       <c r="N21">
-        <v>1.006502022946184</v>
+        <v>1.011413893651366</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9687165669972116</v>
+        <v>0.9758510916356137</v>
       </c>
       <c r="D22">
-        <v>0.9942506936865827</v>
+        <v>1.000484455448102</v>
       </c>
       <c r="E22">
-        <v>0.9877273687446692</v>
+        <v>0.9944689552538103</v>
       </c>
       <c r="F22">
-        <v>0.9922174617422965</v>
+        <v>0.9989702759482821</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033940651472377</v>
+        <v>1.037166892028914</v>
       </c>
       <c r="J22">
-        <v>1.000893987291585</v>
+        <v>1.007689053571818</v>
       </c>
       <c r="K22">
-        <v>1.009936912373222</v>
+        <v>1.016046321286692</v>
       </c>
       <c r="L22">
-        <v>1.003545933348662</v>
+        <v>1.010150785333062</v>
       </c>
       <c r="M22">
-        <v>1.007944685010372</v>
+        <v>1.014562159510235</v>
       </c>
       <c r="N22">
-        <v>1.002315371557684</v>
+        <v>1.00912008761144</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9717859929170877</v>
+        <v>0.9778490873010859</v>
       </c>
       <c r="D23">
-        <v>0.9965260638830388</v>
+        <v>1.001911789974425</v>
       </c>
       <c r="E23">
-        <v>0.9903207114860261</v>
+        <v>0.9961233330677524</v>
       </c>
       <c r="F23">
-        <v>0.9949888173821037</v>
+        <v>1.000805211349663</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034818468921063</v>
+        <v>1.037657346701919</v>
       </c>
       <c r="J23">
-        <v>1.003124641077253</v>
+        <v>1.00890867703853</v>
       </c>
       <c r="K23">
-        <v>1.01185224039044</v>
+        <v>1.01713353301803</v>
       </c>
       <c r="L23">
-        <v>1.005769065728368</v>
+        <v>1.011457378379692</v>
       </c>
       <c r="M23">
-        <v>1.010345074512517</v>
+        <v>1.016048291627116</v>
       </c>
       <c r="N23">
-        <v>1.004549193127587</v>
+        <v>1.010341443083367</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9834491090668013</v>
+        <v>0.985527451721381</v>
       </c>
       <c r="D24">
-        <v>1.005187378263373</v>
+        <v>1.00740720370938</v>
       </c>
       <c r="E24">
-        <v>1.000198342533814</v>
+        <v>1.002499476665161</v>
       </c>
       <c r="F24">
-        <v>1.005544985659635</v>
+        <v>1.007875678899535</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038132334832307</v>
+        <v>1.039521964372231</v>
       </c>
       <c r="J24">
-        <v>1.01159950209911</v>
+        <v>1.013594222126105</v>
       </c>
       <c r="K24">
-        <v>1.019124006033181</v>
+        <v>1.021305477338037</v>
       </c>
       <c r="L24">
-        <v>1.014221975950066</v>
+        <v>1.016482840412421</v>
       </c>
       <c r="M24">
-        <v>1.019475419884604</v>
+        <v>1.021765886128689</v>
       </c>
       <c r="N24">
-        <v>1.013036089424175</v>
+        <v>1.015033642182406</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9962110413733904</v>
+        <v>0.9940798421668041</v>
       </c>
       <c r="D25">
-        <v>1.014689296469977</v>
+        <v>1.01354541638709</v>
       </c>
       <c r="E25">
-        <v>1.011048785773354</v>
+        <v>1.00963616661036</v>
       </c>
       <c r="F25">
-        <v>1.017142168275511</v>
+        <v>1.015786720600789</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041711119904912</v>
+        <v>1.041555554611956</v>
       </c>
       <c r="J25">
-        <v>1.020866595390247</v>
+        <v>1.018808099125863</v>
       </c>
       <c r="K25">
-        <v>1.027063780705143</v>
+        <v>1.025937034287843</v>
       </c>
       <c r="L25">
-        <v>1.023477971068652</v>
+        <v>1.022086712781526</v>
       </c>
       <c r="M25">
-        <v>1.029480077228177</v>
+        <v>1.028144813144151</v>
       </c>
       <c r="N25">
-        <v>1.022316343050736</v>
+        <v>1.020254923485544</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000640116882904</v>
+        <v>0.9988471728378446</v>
       </c>
       <c r="D2">
-        <v>1.018264578143038</v>
+        <v>1.016302878017604</v>
       </c>
       <c r="E2">
-        <v>1.015135973835675</v>
+        <v>1.015597033443937</v>
       </c>
       <c r="F2">
-        <v>1.021881410097475</v>
+        <v>1.027040989991602</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04307891007602</v>
+        <v>1.04258829673959</v>
       </c>
       <c r="J2">
-        <v>1.022801699006364</v>
+        <v>1.021062419526369</v>
       </c>
       <c r="K2">
-        <v>1.029475190214965</v>
+        <v>1.027539665717374</v>
       </c>
       <c r="L2">
-        <v>1.02638839222582</v>
+        <v>1.026843270544607</v>
       </c>
       <c r="M2">
-        <v>1.033044091998061</v>
+        <v>1.038136029078571</v>
       </c>
       <c r="N2">
-        <v>1.024254194735947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010928811354844</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038754497273307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005264394418219</v>
+        <v>1.00242407365127</v>
       </c>
       <c r="D3">
-        <v>1.021595868743346</v>
+        <v>1.018705062420556</v>
       </c>
       <c r="E3">
-        <v>1.019026424677874</v>
+        <v>1.018359955497957</v>
       </c>
       <c r="F3">
-        <v>1.026191762995117</v>
+        <v>1.029721195973574</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044130654465552</v>
+        <v>1.043197743423347</v>
       </c>
       <c r="J3">
-        <v>1.025612568322493</v>
+        <v>1.022848873402842</v>
       </c>
       <c r="K3">
-        <v>1.031959686444639</v>
+        <v>1.029104074374302</v>
       </c>
       <c r="L3">
-        <v>1.029421511929227</v>
+        <v>1.028763185570162</v>
       </c>
       <c r="M3">
-        <v>1.036500134304853</v>
+        <v>1.039987403550038</v>
       </c>
       <c r="N3">
-        <v>1.027069055808917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011534994191352</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040219738099861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008196008613041</v>
+        <v>1.004699163682515</v>
       </c>
       <c r="D4">
-        <v>1.0237095633345</v>
+        <v>1.020234814726481</v>
       </c>
       <c r="E4">
-        <v>1.021498837206511</v>
+        <v>1.020123366385326</v>
       </c>
       <c r="F4">
-        <v>1.028930661410661</v>
+        <v>1.031432806830705</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044786920863856</v>
+        <v>1.043575409995001</v>
       </c>
       <c r="J4">
-        <v>1.027392358135645</v>
+        <v>1.023983423453473</v>
       </c>
       <c r="K4">
-        <v>1.033530014537489</v>
+        <v>1.030095006553116</v>
       </c>
       <c r="L4">
-        <v>1.03134453382331</v>
+        <v>1.029984838376117</v>
       </c>
       <c r="M4">
-        <v>1.038692020733929</v>
+        <v>1.041166108156989</v>
       </c>
       <c r="N4">
-        <v>1.028851373127748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011919764917769</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041152603525719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00941447354393</v>
+        <v>1.005646439639304</v>
       </c>
       <c r="D5">
-        <v>1.024588443035687</v>
+        <v>1.020872151498351</v>
       </c>
       <c r="E5">
-        <v>1.02252784340289</v>
+        <v>1.020859012754761</v>
       </c>
       <c r="F5">
-        <v>1.03007049784859</v>
+        <v>1.032147076375482</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045057122398768</v>
+        <v>1.043730228806053</v>
       </c>
       <c r="J5">
-        <v>1.028131527777167</v>
+        <v>1.02445537339716</v>
       </c>
       <c r="K5">
-        <v>1.03418150056749</v>
+        <v>1.030506575958452</v>
       </c>
       <c r="L5">
-        <v>1.032143792267313</v>
+        <v>1.030493584122958</v>
       </c>
       <c r="M5">
-        <v>1.039603202535148</v>
+        <v>1.041657125146529</v>
       </c>
       <c r="N5">
-        <v>1.029591592474946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012079769944751</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041541210095326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0096182537514</v>
+        <v>1.005804961012911</v>
       </c>
       <c r="D6">
-        <v>1.024735449619188</v>
+        <v>1.020978828231003</v>
       </c>
       <c r="E6">
-        <v>1.022700018864728</v>
+        <v>1.020982201414967</v>
       </c>
       <c r="F6">
-        <v>1.030261213181929</v>
+        <v>1.032266698869681</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04510215998037</v>
+        <v>1.0437559930063</v>
       </c>
       <c r="J6">
-        <v>1.028255114848409</v>
+        <v>1.02453432490027</v>
       </c>
       <c r="K6">
-        <v>1.034290386026983</v>
+        <v>1.03057538858121</v>
       </c>
       <c r="L6">
-        <v>1.032277461484623</v>
+        <v>1.030578724220755</v>
       </c>
       <c r="M6">
-        <v>1.039755600388843</v>
+        <v>1.041739307409753</v>
       </c>
       <c r="N6">
-        <v>1.029715355054004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012106533734667</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041606251749808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00821234408192</v>
+        <v>1.004711856929498</v>
       </c>
       <c r="D7">
-        <v>1.023721344754705</v>
+        <v>1.020243353366909</v>
       </c>
       <c r="E7">
-        <v>1.021512627209727</v>
+        <v>1.020133218301311</v>
       </c>
       <c r="F7">
-        <v>1.028945936986727</v>
+        <v>1.031442371553337</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04479055352351</v>
+        <v>1.043577494165469</v>
       </c>
       <c r="J7">
-        <v>1.027402270158479</v>
+        <v>1.023989749234067</v>
       </c>
       <c r="K7">
-        <v>1.033538753507179</v>
+        <v>1.030100525563415</v>
       </c>
       <c r="L7">
-        <v>1.031355249234242</v>
+        <v>1.029991655125799</v>
       </c>
       <c r="M7">
-        <v>1.038704235968754</v>
+        <v>1.041172686742211</v>
       </c>
       <c r="N7">
-        <v>1.028861299226792</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01192190975259</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041157810030114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00221578450744</v>
+        <v>1.000064322776559</v>
       </c>
       <c r="D8">
-        <v>1.019399263140098</v>
+        <v>1.017119881288894</v>
       </c>
       <c r="E8">
-        <v>1.016460309429587</v>
+        <v>1.016535914475019</v>
       </c>
       <c r="F8">
-        <v>1.023348764402509</v>
+        <v>1.027951552292662</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043439454389763</v>
+        <v>1.04279774327885</v>
       </c>
       <c r="J8">
-        <v>1.023759906236371</v>
+        <v>1.02167065933152</v>
       </c>
       <c r="K8">
-        <v>1.03032271747299</v>
+        <v>1.028072840788683</v>
       </c>
       <c r="L8">
-        <v>1.027421837579085</v>
+        <v>1.027496459715552</v>
       </c>
       <c r="M8">
-        <v>1.034221483823269</v>
+        <v>1.038765758772187</v>
       </c>
       <c r="N8">
-        <v>1.025213762730129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011135242404416</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039252887141104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9911600467229906</v>
+        <v>0.9915607260043231</v>
       </c>
       <c r="D9">
-        <v>1.011447928823165</v>
+        <v>1.011421584415374</v>
       </c>
       <c r="E9">
-        <v>1.007195519444106</v>
+        <v>1.010003430809834</v>
       </c>
       <c r="F9">
-        <v>1.013081573915169</v>
+        <v>1.021620495138139</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040866928802867</v>
+        <v>1.04129391981597</v>
       </c>
       <c r="J9">
-        <v>1.017028875423017</v>
+        <v>1.017415057403766</v>
       </c>
       <c r="K9">
-        <v>1.024357962268206</v>
+        <v>1.024332032999105</v>
       </c>
       <c r="L9">
-        <v>1.020172923220416</v>
+        <v>1.022936267770638</v>
       </c>
       <c r="M9">
-        <v>1.025965918127326</v>
+        <v>1.034372270362447</v>
       </c>
       <c r="N9">
-        <v>1.01847317308096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009690144288898</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03577572114884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9834236503050493</v>
+        <v>0.985719107440639</v>
       </c>
       <c r="D10">
-        <v>1.005899969451157</v>
+        <v>1.007528860426156</v>
       </c>
       <c r="E10">
-        <v>1.000749564838744</v>
+        <v>1.005585329557503</v>
       </c>
       <c r="F10">
-        <v>1.005935454143943</v>
+        <v>1.017393872504854</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039014449681225</v>
+        <v>1.040227252200081</v>
       </c>
       <c r="J10">
-        <v>1.012310737513995</v>
+        <v>1.014511012322182</v>
       </c>
       <c r="K10">
-        <v>1.02016350900589</v>
+        <v>1.021763496632177</v>
       </c>
       <c r="L10">
-        <v>1.015105298836509</v>
+        <v>1.019854466147082</v>
       </c>
       <c r="M10">
-        <v>1.020198362757229</v>
+        <v>1.031456019948354</v>
       </c>
       <c r="N10">
-        <v>1.013748334874929</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008706410571783</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.0335194352167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9799779079820119</v>
+        <v>0.9835907721800258</v>
       </c>
       <c r="D11">
-        <v>1.003433810648908</v>
+        <v>1.00617647681792</v>
       </c>
       <c r="E11">
-        <v>0.9978881935164374</v>
+        <v>1.004255792843477</v>
       </c>
       <c r="F11">
-        <v>1.002762500263728</v>
+        <v>1.016520084773942</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038177623402565</v>
+        <v>1.039955385000476</v>
       </c>
       <c r="J11">
-        <v>1.010208020556038</v>
+        <v>1.013662494153623</v>
       </c>
       <c r="K11">
-        <v>1.018291259568514</v>
+        <v>1.020982846313311</v>
       </c>
       <c r="L11">
-        <v>1.012850045605495</v>
+        <v>1.019097894957928</v>
       </c>
       <c r="M11">
-        <v>1.017632507240016</v>
+        <v>1.03113703923222</v>
       </c>
       <c r="N11">
-        <v>1.011642631817707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008447834336045</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033705621023325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9786827769009284</v>
+        <v>0.9829696573597777</v>
       </c>
       <c r="D12">
-        <v>1.00250769539047</v>
+        <v>1.005812827981689</v>
       </c>
       <c r="E12">
-        <v>0.9968142228291897</v>
+        <v>1.003989833666959</v>
       </c>
       <c r="F12">
-        <v>1.001571453898581</v>
+        <v>1.016557274314537</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037861385324051</v>
+        <v>1.039933717694319</v>
       </c>
       <c r="J12">
-        <v>1.009417545921111</v>
+        <v>1.013512678544655</v>
       </c>
       <c r="K12">
-        <v>1.017587009098633</v>
+        <v>1.020829504329001</v>
       </c>
       <c r="L12">
-        <v>1.012002712875791</v>
+        <v>1.019040991889415</v>
       </c>
       <c r="M12">
-        <v>1.016668609132557</v>
+        <v>1.031373992271068</v>
       </c>
       <c r="N12">
-        <v>1.010851034618129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008421546747952</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.034220988112905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9789612900703805</v>
+        <v>0.9834672886245152</v>
       </c>
       <c r="D13">
-        <v>1.002706814207939</v>
+        <v>1.006185059601396</v>
       </c>
       <c r="E13">
-        <v>0.9970451065733792</v>
+        <v>1.004526167472113</v>
       </c>
       <c r="F13">
-        <v>1.001827512710371</v>
+        <v>1.017309862589726</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037929467213367</v>
+        <v>1.040107652757133</v>
       </c>
       <c r="J13">
-        <v>1.00958753993579</v>
+        <v>1.013892957977634</v>
       </c>
       <c r="K13">
-        <v>1.017738478728754</v>
+        <v>1.021151076086674</v>
       </c>
       <c r="L13">
-        <v>1.012184912465954</v>
+        <v>1.019523419615189</v>
       </c>
       <c r="M13">
-        <v>1.016875867473722</v>
+        <v>1.032069833999332</v>
       </c>
       <c r="N13">
-        <v>1.011021270043808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008572928363606</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035048941740549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9798711677296872</v>
+        <v>0.9843205567352172</v>
       </c>
       <c r="D14">
-        <v>1.0033574660753</v>
+        <v>1.006777509260746</v>
       </c>
       <c r="E14">
-        <v>0.9977996492995231</v>
+        <v>1.005262131253371</v>
       </c>
       <c r="F14">
-        <v>1.002664306336132</v>
+        <v>1.018157701024804</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038151594450911</v>
+        <v>1.040316802322371</v>
       </c>
       <c r="J14">
-        <v>1.010142874846256</v>
+        <v>1.014397095651762</v>
       </c>
       <c r="K14">
-        <v>1.018233228193435</v>
+        <v>1.021589536307487</v>
       </c>
       <c r="L14">
-        <v>1.0127802041621</v>
+        <v>1.020102328695387</v>
       </c>
       <c r="M14">
-        <v>1.017553055199333</v>
+        <v>1.032761656510988</v>
       </c>
       <c r="N14">
-        <v>1.011577393593544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008758571130907</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035769689708122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9804297295147486</v>
+        <v>0.98477391350928</v>
       </c>
       <c r="D15">
-        <v>1.003757004325976</v>
+        <v>1.007084083798044</v>
       </c>
       <c r="E15">
-        <v>0.9982630551650116</v>
+        <v>1.005622540880461</v>
       </c>
       <c r="F15">
-        <v>1.003178209729637</v>
+        <v>1.018533797797561</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038287732390867</v>
+        <v>1.040412042671282</v>
       </c>
       <c r="J15">
-        <v>1.010483770950769</v>
+        <v>1.014639110350341</v>
       </c>
       <c r="K15">
-        <v>1.018536879435041</v>
+        <v>1.021802437685315</v>
       </c>
       <c r="L15">
-        <v>1.013145691990615</v>
+        <v>1.02036785488966</v>
       </c>
       <c r="M15">
-        <v>1.017968841722892</v>
+        <v>1.03304442303123</v>
       </c>
       <c r="N15">
-        <v>1.011918773809628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008843740054958</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036030828581316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9836502442085264</v>
+        <v>0.9871440812245627</v>
       </c>
       <c r="D16">
-        <v>1.006062254650297</v>
+        <v>1.008653366434726</v>
       </c>
       <c r="E16">
-        <v>1.000937936461203</v>
+        <v>1.007388297058059</v>
       </c>
       <c r="F16">
-        <v>1.006144320904624</v>
+        <v>1.020205488391094</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039069240137923</v>
+        <v>1.040842165870047</v>
       </c>
       <c r="J16">
-        <v>1.012448991070501</v>
+        <v>1.015798763431583</v>
       </c>
       <c r="K16">
-        <v>1.020286550441253</v>
+        <v>1.022831895805359</v>
       </c>
       <c r="L16">
-        <v>1.015253648783937</v>
+        <v>1.021589133017935</v>
       </c>
       <c r="M16">
-        <v>1.020367162482347</v>
+        <v>1.034183628903394</v>
       </c>
       <c r="N16">
-        <v>1.013886784767343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009232005964157</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03689242676661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9856441627901725</v>
+        <v>0.9885172744929173</v>
       </c>
       <c r="D17">
-        <v>1.007490852203146</v>
+        <v>1.00954867164939</v>
       </c>
       <c r="E17">
-        <v>1.002596619915059</v>
+        <v>1.008358789006812</v>
       </c>
       <c r="F17">
-        <v>1.007983381791731</v>
+        <v>1.021039666988122</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0395500404876</v>
+        <v>1.041060068804047</v>
       </c>
       <c r="J17">
-        <v>1.013665416436095</v>
+        <v>1.01642398250654</v>
       </c>
       <c r="K17">
-        <v>1.021368802184841</v>
+        <v>1.023391324139648</v>
       </c>
       <c r="L17">
-        <v>1.016559273642978</v>
+        <v>1.02222182868263</v>
       </c>
       <c r="M17">
-        <v>1.021852866523105</v>
+        <v>1.034688584256295</v>
       </c>
       <c r="N17">
-        <v>1.015104937596483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009432362959781</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037162138458119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9867979946345492</v>
+        <v>0.9891555979224597</v>
       </c>
       <c r="D18">
-        <v>1.008318001962816</v>
+        <v>1.00994038607298</v>
       </c>
       <c r="E18">
-        <v>1.003557366812418</v>
+        <v>1.008712571544578</v>
       </c>
       <c r="F18">
-        <v>1.009048534179743</v>
+        <v>1.021184465593273</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03982714969733</v>
+        <v>1.041111554283359</v>
       </c>
       <c r="J18">
-        <v>1.014369206063241</v>
+        <v>1.016634647917598</v>
       </c>
       <c r="K18">
-        <v>1.021994684080227</v>
+        <v>1.023589713481013</v>
       </c>
       <c r="L18">
-        <v>1.017314976702448</v>
+        <v>1.022382590452835</v>
       </c>
       <c r="M18">
-        <v>1.022712884889486</v>
+        <v>1.034647279272583</v>
       </c>
       <c r="N18">
-        <v>1.015809726685625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009485002781363</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036890985325569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9871898874533972</v>
+        <v>0.9891250480119917</v>
       </c>
       <c r="D19">
-        <v>1.008599013465275</v>
+        <v>1.009874199294418</v>
       </c>
       <c r="E19">
-        <v>1.003883831215351</v>
+        <v>1.00849972576544</v>
       </c>
       <c r="F19">
-        <v>1.009410463763607</v>
+        <v>1.020693792459632</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039921076959638</v>
+        <v>1.041013586202212</v>
       </c>
       <c r="J19">
-        <v>1.014608221494928</v>
+        <v>1.01646821721194</v>
       </c>
       <c r="K19">
-        <v>1.022207193161016</v>
+        <v>1.023460999336842</v>
       </c>
       <c r="L19">
-        <v>1.017571674280348</v>
+        <v>1.022109573035215</v>
       </c>
       <c r="M19">
-        <v>1.023005030698603</v>
+        <v>1.034101953972017</v>
       </c>
       <c r="N19">
-        <v>1.016049081546641</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009405219404454</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036132967613437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9854311902819788</v>
+        <v>0.9872331504397475</v>
       </c>
       <c r="D20">
-        <v>1.007338214321129</v>
+        <v>1.008536902767019</v>
       </c>
       <c r="E20">
-        <v>1.002419359576859</v>
+        <v>1.00672928494223</v>
       </c>
       <c r="F20">
-        <v>1.007786852530292</v>
+        <v>1.018490356457061</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039498801302579</v>
+        <v>1.040507909919717</v>
       </c>
       <c r="J20">
-        <v>1.013535501467729</v>
+        <v>1.015265241109017</v>
       </c>
       <c r="K20">
-        <v>1.021253245787885</v>
+        <v>1.022431283820847</v>
       </c>
       <c r="L20">
-        <v>1.01641980044866</v>
+        <v>1.020654831108756</v>
       </c>
       <c r="M20">
-        <v>1.021694147640852</v>
+        <v>1.032215684810659</v>
       </c>
       <c r="N20">
-        <v>1.01497483813396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008962094018686</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034110021021754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9796036588113116</v>
+        <v>0.9827668156849674</v>
       </c>
       <c r="D21">
-        <v>1.003166147435526</v>
+        <v>1.005555029961899</v>
       </c>
       <c r="E21">
-        <v>0.9975777673630235</v>
+        <v>1.00331187569099</v>
       </c>
       <c r="F21">
-        <v>1.002418241197852</v>
+        <v>1.015145629222872</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038086334287236</v>
+        <v>1.039651774498531</v>
       </c>
       <c r="J21">
-        <v>1.009979606763482</v>
+        <v>1.013003146945705</v>
       </c>
       <c r="K21">
-        <v>1.018087783433884</v>
+        <v>1.020431919352142</v>
       </c>
       <c r="L21">
-        <v>1.012605175454429</v>
+        <v>1.018230774055812</v>
       </c>
       <c r="M21">
-        <v>1.017353943635251</v>
+        <v>1.029845634086245</v>
       </c>
       <c r="N21">
-        <v>1.011413893651366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008190415406735</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032193159255892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9758510916356137</v>
+        <v>0.9799331534574039</v>
       </c>
       <c r="D22">
-        <v>1.000484455448102</v>
+        <v>1.003670969365524</v>
       </c>
       <c r="E22">
-        <v>0.9944689552538103</v>
+        <v>1.001168996971431</v>
       </c>
       <c r="F22">
-        <v>0.9989702759482821</v>
+        <v>1.013074301384882</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037166892028914</v>
+        <v>1.039106751567701</v>
       </c>
       <c r="J22">
-        <v>1.007689053571818</v>
+        <v>1.011580084767967</v>
       </c>
       <c r="K22">
-        <v>1.016046321286692</v>
+        <v>1.019170052732058</v>
       </c>
       <c r="L22">
-        <v>1.010150785333062</v>
+        <v>1.016717331320002</v>
       </c>
       <c r="M22">
-        <v>1.014562159510235</v>
+        <v>1.028391128320942</v>
       </c>
       <c r="N22">
-        <v>1.00912008761144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007706430135414</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031042001045482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9778490873010859</v>
+        <v>0.9814405232505128</v>
       </c>
       <c r="D23">
-        <v>1.001911789974425</v>
+        <v>1.004672796359336</v>
       </c>
       <c r="E23">
-        <v>0.9961233330677524</v>
+        <v>1.002308106658659</v>
       </c>
       <c r="F23">
-        <v>1.000805211349663</v>
+        <v>1.014175246945617</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037657346701919</v>
+        <v>1.039397560965689</v>
       </c>
       <c r="J23">
-        <v>1.00890867703853</v>
+        <v>1.012337143497632</v>
       </c>
       <c r="K23">
-        <v>1.01713353301803</v>
+        <v>1.019841569403161</v>
       </c>
       <c r="L23">
-        <v>1.011457378379692</v>
+        <v>1.017522222862801</v>
       </c>
       <c r="M23">
-        <v>1.016048291627116</v>
+        <v>1.029164591627457</v>
       </c>
       <c r="N23">
-        <v>1.010341443083367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007963919453261</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.031654153297396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.985527451721381</v>
+        <v>0.9872620903774993</v>
       </c>
       <c r="D24">
-        <v>1.00740720370938</v>
+        <v>1.008550318029988</v>
       </c>
       <c r="E24">
-        <v>1.002499476665161</v>
+        <v>1.006724549761989</v>
       </c>
       <c r="F24">
-        <v>1.007875678899535</v>
+        <v>1.01844650647958</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039521964372231</v>
+        <v>1.040501094279703</v>
       </c>
       <c r="J24">
-        <v>1.013594222126105</v>
+        <v>1.015259448949701</v>
       </c>
       <c r="K24">
-        <v>1.021305477338037</v>
+        <v>1.022428926063089</v>
       </c>
       <c r="L24">
-        <v>1.016482840412421</v>
+        <v>1.020634594991605</v>
       </c>
       <c r="M24">
-        <v>1.021765886128689</v>
+        <v>1.032157243868325</v>
       </c>
       <c r="N24">
-        <v>1.015033642182406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008957556316159</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034022662428805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9940798421668041</v>
+        <v>0.9937981180302893</v>
       </c>
       <c r="D25">
-        <v>1.01354541638709</v>
+        <v>1.012918603078292</v>
       </c>
       <c r="E25">
-        <v>1.00963616661036</v>
+        <v>1.011716168507907</v>
       </c>
       <c r="F25">
-        <v>1.015786720600789</v>
+        <v>1.023279438446209</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041555554611956</v>
+        <v>1.041698371178412</v>
       </c>
       <c r="J25">
-        <v>1.018808099125863</v>
+        <v>1.018536018179139</v>
       </c>
       <c r="K25">
-        <v>1.025937034287843</v>
+        <v>1.025319630625307</v>
       </c>
       <c r="L25">
-        <v>1.022086712781526</v>
+        <v>1.024135288416288</v>
       </c>
       <c r="M25">
-        <v>1.028144813144151</v>
+        <v>1.035526808382594</v>
       </c>
       <c r="N25">
-        <v>1.020254923485544</v>
+        <v>1.010070960866019</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036689466034481</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9988471728378446</v>
+        <v>0.9992784596679342</v>
       </c>
       <c r="D2">
-        <v>1.016302878017604</v>
+        <v>1.016546593417225</v>
       </c>
       <c r="E2">
-        <v>1.015597033443937</v>
+        <v>1.015941838780538</v>
       </c>
       <c r="F2">
-        <v>1.027040989991602</v>
+        <v>1.027305239512392</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04258829673959</v>
+        <v>1.042700411137652</v>
       </c>
       <c r="J2">
-        <v>1.021062419526369</v>
+        <v>1.021480773321266</v>
       </c>
       <c r="K2">
-        <v>1.027539665717374</v>
+        <v>1.027780122237287</v>
       </c>
       <c r="L2">
-        <v>1.026843270544607</v>
+        <v>1.027183457784644</v>
       </c>
       <c r="M2">
-        <v>1.038136029078571</v>
+        <v>1.038396837156558</v>
       </c>
       <c r="N2">
-        <v>1.010928811354844</v>
+        <v>1.012892236120374</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038754497273307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038960909852071</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019535231002431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00242407365127</v>
+        <v>1.002718186296551</v>
       </c>
       <c r="D3">
-        <v>1.018705062420556</v>
+        <v>1.018760569101071</v>
       </c>
       <c r="E3">
-        <v>1.018359955497957</v>
+        <v>1.018594314694635</v>
       </c>
       <c r="F3">
-        <v>1.029721195973574</v>
+        <v>1.029897104173096</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043197743423347</v>
+        <v>1.043230993436666</v>
       </c>
       <c r="J3">
-        <v>1.022848873402842</v>
+        <v>1.023135024095327</v>
       </c>
       <c r="K3">
-        <v>1.029104074374302</v>
+        <v>1.029158902948189</v>
       </c>
       <c r="L3">
-        <v>1.028763185570162</v>
+        <v>1.028994679891011</v>
       </c>
       <c r="M3">
-        <v>1.039987403550038</v>
+        <v>1.040161219665186</v>
       </c>
       <c r="N3">
-        <v>1.011534994191352</v>
+        <v>1.013338873759306</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040219738099861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040357301941345</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019802782797244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004699163682515</v>
+        <v>1.004906978588291</v>
       </c>
       <c r="D4">
-        <v>1.020234814726481</v>
+        <v>1.020171260965444</v>
       </c>
       <c r="E4">
-        <v>1.020123366385326</v>
+        <v>1.020288139313763</v>
       </c>
       <c r="F4">
-        <v>1.031432806830705</v>
+        <v>1.031553080497612</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043575409995001</v>
+        <v>1.043558710309044</v>
       </c>
       <c r="J4">
-        <v>1.023983423453473</v>
+        <v>1.024185990828011</v>
       </c>
       <c r="K4">
-        <v>1.030095006553116</v>
+        <v>1.030032182767334</v>
       </c>
       <c r="L4">
-        <v>1.029984838376117</v>
+        <v>1.030147718743532</v>
       </c>
       <c r="M4">
-        <v>1.041166108156989</v>
+        <v>1.041285037346266</v>
       </c>
       <c r="N4">
-        <v>1.011919764917769</v>
+        <v>1.013622504699875</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041152603525719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041246727913812</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019969691461722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005646439639304</v>
+        <v>1.005818538866689</v>
       </c>
       <c r="D5">
-        <v>1.020872151498351</v>
+        <v>1.020759174751154</v>
       </c>
       <c r="E5">
-        <v>1.020859012754761</v>
+        <v>1.020994964443709</v>
       </c>
       <c r="F5">
-        <v>1.032147076375482</v>
+        <v>1.03224431252114</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043730228806053</v>
+        <v>1.043692780776309</v>
       </c>
       <c r="J5">
-        <v>1.02445537339716</v>
+        <v>1.024623255975085</v>
       </c>
       <c r="K5">
-        <v>1.030506575958452</v>
+        <v>1.030394862589051</v>
       </c>
       <c r="L5">
-        <v>1.030493584122958</v>
+        <v>1.030628015921778</v>
       </c>
       <c r="M5">
-        <v>1.041657125146529</v>
+        <v>1.041753303166675</v>
       </c>
       <c r="N5">
-        <v>1.012079769944751</v>
+        <v>1.013740481058376</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041541210095326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041617328435972</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020038390535647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005804961012911</v>
+        <v>1.005971095762532</v>
       </c>
       <c r="D6">
-        <v>1.020978828231003</v>
+        <v>1.020857589471993</v>
       </c>
       <c r="E6">
-        <v>1.020982201414967</v>
+        <v>1.021113338787089</v>
       </c>
       <c r="F6">
-        <v>1.032266698869681</v>
+        <v>1.032360087098274</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.0437559930063</v>
+        <v>1.043715075695224</v>
       </c>
       <c r="J6">
-        <v>1.02453432490027</v>
+        <v>1.024696409902688</v>
       </c>
       <c r="K6">
-        <v>1.03057538858121</v>
+        <v>1.03045549944389</v>
       </c>
       <c r="L6">
-        <v>1.030578724220755</v>
+        <v>1.030708402236222</v>
       </c>
       <c r="M6">
-        <v>1.041739307409753</v>
+        <v>1.041831684013422</v>
       </c>
       <c r="N6">
-        <v>1.012106533734667</v>
+        <v>1.013760216489129</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041606251749808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041679361522268</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02004983977777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004711856929498</v>
+        <v>1.004926582850297</v>
       </c>
       <c r="D7">
-        <v>1.020243353366909</v>
+        <v>1.020184667826096</v>
       </c>
       <c r="E7">
-        <v>1.020133218301311</v>
+        <v>1.020303688531319</v>
       </c>
       <c r="F7">
-        <v>1.031442371553337</v>
+        <v>1.031567108615157</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043577494165469</v>
+        <v>1.043563078452087</v>
       </c>
       <c r="J7">
-        <v>1.023989749234067</v>
+        <v>1.024199055331475</v>
       </c>
       <c r="K7">
-        <v>1.030100525563415</v>
+        <v>1.030042513838484</v>
       </c>
       <c r="L7">
-        <v>1.029991655125799</v>
+        <v>1.030160168071051</v>
       </c>
       <c r="M7">
-        <v>1.041172686742211</v>
+        <v>1.041296029936381</v>
       </c>
       <c r="N7">
-        <v>1.01192190975259</v>
+        <v>1.013651882346934</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041157810030114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041255427802804</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019972186472223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000064322776559</v>
+        <v>1.00047151301626</v>
       </c>
       <c r="D8">
-        <v>1.017119881288894</v>
+        <v>1.01731655896179</v>
       </c>
       <c r="E8">
-        <v>1.016535914475019</v>
+        <v>1.01686178455427</v>
       </c>
       <c r="F8">
-        <v>1.027951552292662</v>
+        <v>1.028200388140821</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04279774327885</v>
+        <v>1.042890930639932</v>
       </c>
       <c r="J8">
-        <v>1.02167065933152</v>
+        <v>1.022066046519786</v>
       </c>
       <c r="K8">
-        <v>1.028072840788683</v>
+        <v>1.028266966068645</v>
       </c>
       <c r="L8">
-        <v>1.027496459715552</v>
+        <v>1.027818095390808</v>
       </c>
       <c r="M8">
-        <v>1.038765758772187</v>
+        <v>1.039011449923065</v>
       </c>
       <c r="N8">
-        <v>1.011135242404416</v>
+        <v>1.013128870898524</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039252887141104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039447335524764</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019631831032494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9915607260043231</v>
+        <v>0.9923034760796946</v>
       </c>
       <c r="D9">
-        <v>1.011421584415374</v>
+        <v>1.012072414610502</v>
       </c>
       <c r="E9">
-        <v>1.010003430809834</v>
+        <v>1.010598844512146</v>
       </c>
       <c r="F9">
-        <v>1.021620495138139</v>
+        <v>1.022085116496433</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04129391981597</v>
+        <v>1.04157717296395</v>
       </c>
       <c r="J9">
-        <v>1.017415057403766</v>
+        <v>1.018130976868743</v>
       </c>
       <c r="K9">
-        <v>1.024332032999105</v>
+        <v>1.024972615423594</v>
       </c>
       <c r="L9">
-        <v>1.022936267770638</v>
+        <v>1.023522271885803</v>
       </c>
       <c r="M9">
-        <v>1.034372270362447</v>
+        <v>1.034829759435671</v>
       </c>
       <c r="N9">
-        <v>1.009690144288898</v>
+        <v>1.012075306886421</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03577572114884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036137795377756</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018978569253187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.985719107440639</v>
+        <v>0.9867301250262266</v>
       </c>
       <c r="D10">
-        <v>1.007528860426156</v>
+        <v>1.008518879342472</v>
       </c>
       <c r="E10">
-        <v>1.005585329557503</v>
+        <v>1.006395985691399</v>
       </c>
       <c r="F10">
-        <v>1.017393872504854</v>
+        <v>1.018030717533375</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040227252200081</v>
+        <v>1.040653102057436</v>
       </c>
       <c r="J10">
-        <v>1.014511012322182</v>
+        <v>1.015480307127783</v>
       </c>
       <c r="K10">
-        <v>1.021763496632177</v>
+        <v>1.022736007623277</v>
       </c>
       <c r="L10">
-        <v>1.019854466147082</v>
+        <v>1.020650710984328</v>
       </c>
       <c r="M10">
-        <v>1.031456019948354</v>
+        <v>1.032081878352018</v>
       </c>
       <c r="N10">
-        <v>1.008706410571783</v>
+        <v>1.011478243308411</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0335194352167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034014733629989</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018527691692631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9835907721800258</v>
+        <v>0.9847397024339433</v>
       </c>
       <c r="D11">
-        <v>1.00617647681792</v>
+        <v>1.007314040169602</v>
       </c>
       <c r="E11">
-        <v>1.004255792843477</v>
+        <v>1.005176632606245</v>
       </c>
       <c r="F11">
-        <v>1.016520084773942</v>
+        <v>1.017244608062965</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039955385000476</v>
+        <v>1.040443492638931</v>
       </c>
       <c r="J11">
-        <v>1.013662494153623</v>
+        <v>1.014761402255222</v>
       </c>
       <c r="K11">
-        <v>1.020982846313311</v>
+        <v>1.022099330077237</v>
       </c>
       <c r="L11">
-        <v>1.019097894957928</v>
+        <v>1.020001581084585</v>
       </c>
       <c r="M11">
-        <v>1.03113703923222</v>
+        <v>1.031848482501643</v>
       </c>
       <c r="N11">
-        <v>1.008447834336045</v>
+        <v>1.011534448742094</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033705621023325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034268364305781</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01842680369103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9829696573597777</v>
+        <v>0.9841607595970827</v>
       </c>
       <c r="D12">
-        <v>1.005812827981689</v>
+        <v>1.006991680343857</v>
       </c>
       <c r="E12">
-        <v>1.003989833666959</v>
+        <v>1.004943614186588</v>
       </c>
       <c r="F12">
-        <v>1.016557274314537</v>
+        <v>1.017307947279509</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039933717694319</v>
+        <v>1.040438580389796</v>
       </c>
       <c r="J12">
-        <v>1.013512678544655</v>
+        <v>1.014650928147766</v>
       </c>
       <c r="K12">
-        <v>1.020829504329001</v>
+        <v>1.021986145562209</v>
       </c>
       <c r="L12">
-        <v>1.019040991889415</v>
+        <v>1.019976711288493</v>
       </c>
       <c r="M12">
-        <v>1.031373992271068</v>
+        <v>1.032110900480697</v>
       </c>
       <c r="N12">
-        <v>1.008421546747952</v>
+        <v>1.01162430666408</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034220988112905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034803674768131</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018424790109255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9834672886245152</v>
+        <v>0.9846188849858566</v>
       </c>
       <c r="D13">
-        <v>1.006185059601396</v>
+        <v>1.00731775911964</v>
       </c>
       <c r="E13">
-        <v>1.004526167472113</v>
+        <v>1.005446956715034</v>
       </c>
       <c r="F13">
-        <v>1.017309862589726</v>
+        <v>1.018034185528051</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040107652757133</v>
+        <v>1.040591704663303</v>
       </c>
       <c r="J13">
-        <v>1.013892957977634</v>
+        <v>1.014993713166089</v>
       </c>
       <c r="K13">
-        <v>1.021151076086674</v>
+        <v>1.022262524914771</v>
       </c>
       <c r="L13">
-        <v>1.019523419615189</v>
+        <v>1.020426854481417</v>
       </c>
       <c r="M13">
-        <v>1.032069833999332</v>
+        <v>1.032780944795464</v>
       </c>
       <c r="N13">
-        <v>1.008572928363606</v>
+        <v>1.011710310566602</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035048941740549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035611087588485</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018498035481672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9843205567352172</v>
+        <v>0.9854082109099829</v>
       </c>
       <c r="D14">
-        <v>1.006777509260746</v>
+        <v>1.007838993600422</v>
       </c>
       <c r="E14">
-        <v>1.005262131253371</v>
+        <v>1.006130660579539</v>
       </c>
       <c r="F14">
-        <v>1.018157701024804</v>
+        <v>1.018840385358569</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040316802322371</v>
+        <v>1.04076970090989</v>
       </c>
       <c r="J14">
-        <v>1.014397095651762</v>
+        <v>1.015437423666633</v>
       </c>
       <c r="K14">
-        <v>1.021589536307487</v>
+        <v>1.022631353767006</v>
       </c>
       <c r="L14">
-        <v>1.020102328695387</v>
+        <v>1.020954698797827</v>
       </c>
       <c r="M14">
-        <v>1.032761656510988</v>
+        <v>1.033432050920956</v>
       </c>
       <c r="N14">
-        <v>1.008758571130907</v>
+        <v>1.011769374139574</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035769689708122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036299576626622</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018583103943395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.98477391350928</v>
+        <v>0.9858289541241337</v>
       </c>
       <c r="D15">
-        <v>1.007084083798044</v>
+        <v>1.008109690480948</v>
       </c>
       <c r="E15">
-        <v>1.005622540880461</v>
+        <v>1.006464645905082</v>
       </c>
       <c r="F15">
-        <v>1.018533797797561</v>
+        <v>1.019195434659895</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040412042671282</v>
+        <v>1.040849469573284</v>
       </c>
       <c r="J15">
-        <v>1.014639110350341</v>
+        <v>1.015648645983844</v>
       </c>
       <c r="K15">
-        <v>1.021802437685315</v>
+        <v>1.022809186473926</v>
       </c>
       <c r="L15">
-        <v>1.02036785488966</v>
+        <v>1.02119441369676</v>
       </c>
       <c r="M15">
-        <v>1.03304442303123</v>
+        <v>1.033694241221022</v>
       </c>
       <c r="N15">
-        <v>1.008843740054958</v>
+        <v>1.011786844117578</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036030828581316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036544438271603</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01862116744067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9871440812245627</v>
+        <v>0.9880432984553947</v>
       </c>
       <c r="D16">
-        <v>1.008653366434726</v>
+        <v>1.009506465275285</v>
       </c>
       <c r="E16">
-        <v>1.007388297058059</v>
+        <v>1.008105134094033</v>
       </c>
       <c r="F16">
-        <v>1.020205488391094</v>
+        <v>1.020767317243701</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040842165870047</v>
+        <v>1.041206280813871</v>
       </c>
       <c r="J16">
-        <v>1.015798763431583</v>
+        <v>1.016661136455269</v>
       </c>
       <c r="K16">
-        <v>1.022831895805359</v>
+        <v>1.023669993113916</v>
       </c>
       <c r="L16">
-        <v>1.021589133017935</v>
+        <v>1.022293321369242</v>
       </c>
       <c r="M16">
-        <v>1.034183628903394</v>
+        <v>1.034735861392409</v>
       </c>
       <c r="N16">
-        <v>1.009232005964157</v>
+        <v>1.011849494693262</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03689242676661</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.037328918219848</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018791542962238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9885172744929173</v>
+        <v>0.9893389220894343</v>
       </c>
       <c r="D17">
-        <v>1.00954867164939</v>
+        <v>1.01031310030202</v>
       </c>
       <c r="E17">
-        <v>1.008358789006812</v>
+        <v>1.009013691118668</v>
       </c>
       <c r="F17">
-        <v>1.021039666988122</v>
+        <v>1.021552109994387</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041060068804047</v>
+        <v>1.04138701734365</v>
       </c>
       <c r="J17">
-        <v>1.01642398250654</v>
+        <v>1.017213045685189</v>
       </c>
       <c r="K17">
-        <v>1.023391324139648</v>
+        <v>1.024142687968645</v>
       </c>
       <c r="L17">
-        <v>1.02222182868263</v>
+        <v>1.022865502158691</v>
       </c>
       <c r="M17">
-        <v>1.034688584256295</v>
+        <v>1.035192518317181</v>
       </c>
       <c r="N17">
-        <v>1.009432362959781</v>
+        <v>1.011895593916478</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037162138458119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.037560494095012</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018878513190165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9891555979224597</v>
+        <v>0.9899492711642418</v>
       </c>
       <c r="D18">
-        <v>1.00994038607298</v>
+        <v>1.010672371935244</v>
       </c>
       <c r="E18">
-        <v>1.008712571544578</v>
+        <v>1.009345691059801</v>
       </c>
       <c r="F18">
-        <v>1.021184465593273</v>
+        <v>1.02167949951079</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041111554283359</v>
+        <v>1.041425482726374</v>
       </c>
       <c r="J18">
-        <v>1.016634647917598</v>
+        <v>1.017397435085971</v>
       </c>
       <c r="K18">
-        <v>1.023589713481013</v>
+        <v>1.024309394537823</v>
       </c>
       <c r="L18">
-        <v>1.022382590452835</v>
+        <v>1.02300503233905</v>
       </c>
       <c r="M18">
-        <v>1.034647279272583</v>
+        <v>1.035134222964653</v>
       </c>
       <c r="N18">
-        <v>1.009485002781363</v>
+        <v>1.011890453167029</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036890985325569</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.037275990952329</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018897522965976</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9891250480119917</v>
+        <v>0.9899295601998837</v>
       </c>
       <c r="D19">
-        <v>1.009874199294418</v>
+        <v>1.010620058821498</v>
       </c>
       <c r="E19">
-        <v>1.00849972576544</v>
+        <v>1.009142458301368</v>
       </c>
       <c r="F19">
-        <v>1.020693792459632</v>
+        <v>1.021196486938773</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041013586202212</v>
+        <v>1.041334258898868</v>
       </c>
       <c r="J19">
-        <v>1.01646821721194</v>
+        <v>1.017241602925154</v>
       </c>
       <c r="K19">
-        <v>1.023460999336842</v>
+        <v>1.024194386072285</v>
       </c>
       <c r="L19">
-        <v>1.022109573035215</v>
+        <v>1.022741518132125</v>
       </c>
       <c r="M19">
-        <v>1.034101953972017</v>
+        <v>1.034596466852365</v>
       </c>
       <c r="N19">
-        <v>1.009405219404454</v>
+        <v>1.011819585426076</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036132967613437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.03652408664867</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018854442478281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9872331504397475</v>
+        <v>0.9881534244268514</v>
       </c>
       <c r="D20">
-        <v>1.008536902767019</v>
+        <v>1.009422853792761</v>
       </c>
       <c r="E20">
-        <v>1.00672928494223</v>
+        <v>1.007466688024208</v>
       </c>
       <c r="F20">
-        <v>1.018490356457061</v>
+        <v>1.019068739946916</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040507909919717</v>
+        <v>1.040889325726048</v>
       </c>
       <c r="J20">
-        <v>1.015265241109017</v>
+        <v>1.016148775469726</v>
       </c>
       <c r="K20">
-        <v>1.022431283820847</v>
+        <v>1.023302012860518</v>
       </c>
       <c r="L20">
-        <v>1.020654831108756</v>
+        <v>1.021379503168771</v>
       </c>
       <c r="M20">
-        <v>1.032215684810659</v>
+        <v>1.032784375701639</v>
       </c>
       <c r="N20">
-        <v>1.008962094018686</v>
+        <v>1.011560096241966</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034110021021754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.034560083074697</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018641486573659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9827668156849674</v>
+        <v>0.9839982867029791</v>
       </c>
       <c r="D21">
-        <v>1.005555029961899</v>
+        <v>1.006782782826911</v>
       </c>
       <c r="E21">
-        <v>1.00331187569099</v>
+        <v>1.00430162369222</v>
       </c>
       <c r="F21">
-        <v>1.015145629222872</v>
+        <v>1.015925372083406</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039651774498531</v>
+        <v>1.040180631621729</v>
       </c>
       <c r="J21">
-        <v>1.013003146945705</v>
+        <v>1.014180609665426</v>
       </c>
       <c r="K21">
-        <v>1.020431919352142</v>
+        <v>1.02163678272405</v>
       </c>
       <c r="L21">
-        <v>1.018230774055812</v>
+        <v>1.019201956215352</v>
       </c>
       <c r="M21">
-        <v>1.029845634086245</v>
+        <v>1.030611186734151</v>
       </c>
       <c r="N21">
-        <v>1.008190415406735</v>
+        <v>1.011443530120824</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032193159255892</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.032799049675248</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018303305684768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9799331534574039</v>
+        <v>0.981361935538441</v>
       </c>
       <c r="D22">
-        <v>1.003670969365524</v>
+        <v>1.005115752752722</v>
       </c>
       <c r="E22">
-        <v>1.001168996971431</v>
+        <v>1.002318711014249</v>
       </c>
       <c r="F22">
-        <v>1.013074301384882</v>
+        <v>1.013981982816101</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039106751567701</v>
+        <v>1.039729265918026</v>
       </c>
       <c r="J22">
-        <v>1.011580084767967</v>
+        <v>1.012942542569439</v>
       </c>
       <c r="K22">
-        <v>1.019170052732058</v>
+        <v>1.020586542265467</v>
       </c>
       <c r="L22">
-        <v>1.016717331320002</v>
+        <v>1.017844373308772</v>
       </c>
       <c r="M22">
-        <v>1.028391128320942</v>
+        <v>1.029281451047078</v>
       </c>
       <c r="N22">
-        <v>1.007706430135414</v>
+        <v>1.01136666753305</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031042001045482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.031746640840289</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018089202881187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9814405232505128</v>
+        <v>0.9827521536480338</v>
       </c>
       <c r="D23">
-        <v>1.004672796359336</v>
+        <v>1.005992595280035</v>
       </c>
       <c r="E23">
-        <v>1.002308106658659</v>
+        <v>1.003362565089173</v>
       </c>
       <c r="F23">
-        <v>1.014175246945617</v>
+        <v>1.015006777174467</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039397560965689</v>
+        <v>1.039965766473094</v>
       </c>
       <c r="J23">
-        <v>1.012337143497632</v>
+        <v>1.013589681050796</v>
       </c>
       <c r="K23">
-        <v>1.019841569403161</v>
+        <v>1.021136182291671</v>
       </c>
       <c r="L23">
-        <v>1.017522222862801</v>
+        <v>1.018556427383121</v>
       </c>
       <c r="M23">
-        <v>1.029164591627457</v>
+        <v>1.029980629177378</v>
       </c>
       <c r="N23">
-        <v>1.007963919453261</v>
+        <v>1.011365363091796</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.031654153297396</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.032300000061374</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018200631143921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9872620903774993</v>
+        <v>0.9881816639017686</v>
       </c>
       <c r="D24">
-        <v>1.008550318029988</v>
+        <v>1.009435702271776</v>
       </c>
       <c r="E24">
-        <v>1.006724549761989</v>
+        <v>1.007461501077069</v>
       </c>
       <c r="F24">
-        <v>1.01844650647958</v>
+        <v>1.019024546405868</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040501094279703</v>
+        <v>1.040882365043049</v>
       </c>
       <c r="J24">
-        <v>1.015259448949701</v>
+        <v>1.016142365558277</v>
       </c>
       <c r="K24">
-        <v>1.022428926063089</v>
+        <v>1.023299118131861</v>
       </c>
       <c r="L24">
-        <v>1.020634594991605</v>
+        <v>1.021358839294203</v>
       </c>
       <c r="M24">
-        <v>1.032157243868325</v>
+        <v>1.032725608297711</v>
       </c>
       <c r="N24">
-        <v>1.008957556316159</v>
+        <v>1.011552486561101</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034022662428805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.034472488713774</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01863833842594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9937981180302893</v>
+        <v>0.9944425343823255</v>
       </c>
       <c r="D25">
-        <v>1.012918603078292</v>
+        <v>1.013442447072108</v>
       </c>
       <c r="E25">
-        <v>1.011716168507907</v>
+        <v>1.012232525615673</v>
       </c>
       <c r="F25">
-        <v>1.023279438446209</v>
+        <v>1.023680832339266</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041698371178412</v>
+        <v>1.041928228986339</v>
       </c>
       <c r="J25">
-        <v>1.018536018179139</v>
+        <v>1.019158387900487</v>
       </c>
       <c r="K25">
-        <v>1.025319630625307</v>
+        <v>1.025835609718973</v>
       </c>
       <c r="L25">
-        <v>1.024135288416288</v>
+        <v>1.024643869482643</v>
       </c>
       <c r="M25">
-        <v>1.035526808382594</v>
+        <v>1.035922328781224</v>
       </c>
       <c r="N25">
-        <v>1.010070960866019</v>
+        <v>1.012320050222042</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036689466034481</v>
+        <v>1.037002495508625</v>
+      </c>
+      <c r="S25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T25">
+        <v>1.019151376144652</v>
       </c>
     </row>
   </sheetData>
